--- a/biology/Médecine/Organisation_mondiale_de_l'allergie/Organisation_mondiale_de_l'allergie.xlsx
+++ b/biology/Médecine/Organisation_mondiale_de_l'allergie/Organisation_mondiale_de_l'allergie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Organisation_mondiale_de_l%27allergie</t>
+          <t>Organisation_mondiale_de_l'allergie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Organisation mondiale de l'allergie (World Allergy Organization - WAO) est une organisation internationale dont les membres sont constitués de 97 sociétés régionales et nationales d'allergologie et d'immunologie clinique de nombreux pays dans le monde. L'organisme fournit  à ses sociétés membres des programmes de diffusion directe, et présente des symposiums et des conférences dans près de 100 pays à travers le monde. Elle travaille en partenariat avec l'Organisation mondiale de la santé (OMS).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Organisation_mondiale_de_l%27allergie</t>
+          <t>Organisation_mondiale_de_l'allergie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'organisation a été fondée en 1951 et portait le nom d'International Association of Allergology and Clinical Immunology (Association internationale d'allergologie et d'immunologie clinique - IAACI). Dès l'année de sa fondation, l'organisme tint son premier congrès qui eut lieu à Zurich. Au cours des 60 ans qui suivirent, elle présenta des congrès sur une base triennale pour ensuite être présentés à tous les deux ans à partir de 2003. Depuis sa fondation, elle a présenté 23 congrès auxquels participèrent 2 000 à 5 000 experts scientifiques. Nommé à l'origine "International Congress of Allergology and Clinical Immunology" (Congrès international de l'allergologie et de l'immunologie clinique) se nomme maintenant le World Allergy Congress (Congrès mondial sur l'allergie)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'organisation a été fondée en 1951 et portait le nom d'International Association of Allergology and Clinical Immunology (Association internationale d'allergologie et d'immunologie clinique - IAACI). Dès l'année de sa fondation, l'organisme tint son premier congrès qui eut lieu à Zurich. Au cours des 60 ans qui suivirent, elle présenta des congrès sur une base triennale pour ensuite être présentés à tous les deux ans à partir de 2003. Depuis sa fondation, elle a présenté 23 congrès auxquels participèrent 2 000 à 5 000 experts scientifiques. Nommé à l'origine "International Congress of Allergology and Clinical Immunology" (Congrès international de l'allergologie et de l'immunologie clinique) se nomme maintenant le World Allergy Congress (Congrès mondial sur l'allergie).
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Organisation_mondiale_de_l%27allergie</t>
+          <t>Organisation_mondiale_de_l'allergie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,20 +558,93 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Afrique
-Allergy Society of Kenya
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Allergy Society of Kenya
 Allergy Society of South Africa
 Egyptian Society of Allergy and Clinical Immunology
 Egyptian Society of Pediatric Allergy and Immunology
 Moroccan Society of Allergology and Clinical Immunology
 Tunisian Society of Respiratory Diseases and Allergology
-Zimbabwe Allergy Society[2]
-Amérique du Nord
-American Academy of Allergy, Asthma and Immunology
+Zimbabwe Allergy Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Organisation_mondiale_de_l'allergie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organisation_mondiale_de_l%27allergie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sociétés membres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>American Academy of Allergy, Asthma and Immunology
 American College of Allergy, Asthma and Immunology
-Canadian Society of Allergy and Clinical Immunology[2]
-Amérique latine
-Argentine Association of Allergy and Immunology
+Canadian Society of Allergy and Clinical Immunology</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Organisation_mondiale_de_l'allergie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organisation_mondiale_de_l%27allergie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sociétés membres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Amérique latine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Argentine Association of Allergy and Immunology
 Argentine Society of Allergy and Immunology
 Brazilian Society of Allergy and Immunology
 Chilean Society of Allergy and Immunology
@@ -572,16 +659,91 @@
 Paraguayan Society of Allergy, Asthma, and Immunology
 Peruvian Society of Allergy and Immunology
 Uruguayan Society of Allergology
-Venezuelan Society of Allergy, Asthma and Immunology[2]
-Eurasie
-Moyen-Orient
-Iranian Society of Asthma and Allergy
+Venezuelan Society of Allergy, Asthma and Immunology</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Organisation_mondiale_de_l'allergie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organisation_mondiale_de_l%27allergie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sociétés membres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Eurasie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Moyen-Orient</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Iranian Society of Asthma and Allergy
 Israël Association of Allergy and Clinical Immunology
 Jordanian Society for Allergy and Clinical Immunology
 Kuwait Society of Allergy &amp; Clinical Immunology
-Lebanese Society of Allergy and Immunology[2]
-Asie/Pacifique
-Allergy &amp; Immunology Society of Sri Lanka
+Lebanese Society of Allergy and Immunology</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Organisation_mondiale_de_l'allergie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organisation_mondiale_de_l%27allergie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sociétés membres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Eurasie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Asie/Pacifique</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Allergy &amp; Immunology Society of Sri Lanka
 Allergy and Clinical Immunology Society (Singapore)
 Allergy and Immunology Society of Thailand
 Australasian Society of Clinical Immunology and Allergy
@@ -597,9 +759,47 @@
 Mongolian Society of Allergology
 Philippine Society of Allergy, Asthma and Immunology
 Taiwan Academy of Pediatric Allergy Asthma Immunology
-Vietnam Association of Allergy, Asthma and Clinical Immunology[2]
-Europe
-Albanian Society of Allergology and Clinical Immunology
+Vietnam Association of Allergy, Asthma and Clinical Immunology</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Organisation_mondiale_de_l'allergie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organisation_mondiale_de_l%27allergie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sociétés membres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Eurasie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Albanian Society of Allergology and Clinical Immunology
 Armenian Association of Immunology and Allergy
 Austrian Society of Allergology and Immunology
 Azerbaïdjan Society for Asthma, Allergy and Clinical Immunology
@@ -634,101 +834,107 @@
 Swiss Society of Allergology and Immunology
 Turkish National Society of Allergy and Clinical Immunology
 Ukrainian Allergists Association
-Ukrainian Association of Allergologists and Clinical Immunologists[2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Organisation_mondiale_de_l%27allergie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Organisation_mondiale_de_l%27allergie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Ukrainian Association of Allergologists and Clinical Immunologists</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Organisation_mondiale_de_l'allergie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organisation_mondiale_de_l%27allergie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Organisations affiliées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>British Society for Immunology
 Global Allergy and Asthma European Network (GA2LEN)
 International Association of Asthmology (INTERASMA)
 International Primary Care Respiratory Group (IPCRG)
-Southern European Allergy Societies (SEAS)[2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Organisation_mondiale_de_l%27allergie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Organisation_mondiale_de_l%27allergie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Southern European Allergy Societies (SEAS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Organisation_mondiale_de_l'allergie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organisation_mondiale_de_l%27allergie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Membres associés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Armenian Association of Immunology and Allergy
 Haitian Society of Allergy and Immunology
-National Association for Private Algerian Allergists[2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Organisation_mondiale_de_l%27allergie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Organisation_mondiale_de_l%27allergie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+National Association for Private Algerian Allergists</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Organisation_mondiale_de_l'allergie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organisation_mondiale_de_l%27allergie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>World Allergy Organization Journal, Éd. Lippincott Williams &amp; Wilkins (en)</t>
         </is>
